--- a/DaySale_2025-05-21_00-00.xlsx
+++ b/DaySale_2025-05-21_00-00.xlsx
@@ -43,6 +43,21 @@
   </si>
   <si>
     <t>عدد التعااملات</t>
+  </si>
+  <si>
+    <t>HYDRAPHASE UV INTENSE LIGHT CREAM 50 ML</t>
+  </si>
+  <si>
+    <t>-1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>225.00</t>
+  </si>
+  <si>
+    <t>1:0</t>
   </si>
   <si>
     <t>Wednesday, 21 May, 2025 10:26 AM</t>
@@ -257,16 +272,16 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -672,36 +687,46 @@
     </row>
     <row r="8" ht="24.75" customHeight="1">
       <c r="A8" s="8">
-        <v>0</v>
-      </c>
-      <c r="B8" s="9"/>
+        <v>1</v>
+      </c>
+      <c t="s" r="B8" s="9">
+        <v>11</v>
+      </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="10"/>
+      <c t="s" r="H8" s="10">
+        <v>12</v>
+      </c>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="12"/>
+      <c t="s" r="K8" s="11">
+        <v>13</v>
+      </c>
+      <c t="s" r="L8" s="9">
+        <v>14</v>
+      </c>
+      <c t="s" r="M8" s="12">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" ht="16.5" customHeight="1">
       <c t="s" r="A9" s="13">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
       <c t="s" r="F9" s="14">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="15"/>
       <c t="s" r="I9" s="16">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J9" s="16"/>
       <c r="K9" s="16"/>

--- a/DaySale_2025-05-21_00-00.xlsx
+++ b/DaySale_2025-05-21_00-00.xlsx
@@ -60,7 +60,7 @@
     <t>1:0</t>
   </si>
   <si>
-    <t>Wednesday, 21 May, 2025 10:30 AM</t>
+    <t>Wednesday, 21 May, 2025 10:31 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-21_00-00.xlsx
+++ b/DaySale_2025-05-21_00-00.xlsx
@@ -60,7 +60,7 @@
     <t>1:0</t>
   </si>
   <si>
-    <t>Wednesday, 21 May, 2025 10:38 AM</t>
+    <t>Wednesday, 21 May, 2025 10:49 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-21_00-00.xlsx
+++ b/DaySale_2025-05-21_00-00.xlsx
@@ -78,7 +78,7 @@
     <t>225.00</t>
   </si>
   <si>
-    <t>Wednesday, 21 May, 2025 11:02 AM</t>
+    <t>Wednesday, 21 May, 2025 11:04 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-21_00-00.xlsx
+++ b/DaySale_2025-05-21_00-00.xlsx
@@ -287,7 +287,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>Wednesday, 21 May, 2025 1:33 PM</t>
+    <t>Wednesday, 21 May, 2025 1:34 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-21_00-00.xlsx
+++ b/DaySale_2025-05-21_00-00.xlsx
@@ -71,7 +71,7 @@
     <t>225.00</t>
   </si>
   <si>
-    <t>Wednesday, 21 May, 2025 9:29 PM</t>
+    <t>Wednesday, 21 May, 2025 9:31 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-21_00-00.xlsx
+++ b/DaySale_2025-05-21_00-00.xlsx
@@ -71,7 +71,7 @@
     <t>225.00</t>
   </si>
   <si>
-    <t>Wednesday, 21 May, 2025 9:31 PM</t>
+    <t>Wednesday, 21 May, 2025 9:35 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-21_00-00.xlsx
+++ b/DaySale_2025-05-21_00-00.xlsx
@@ -71,7 +71,7 @@
     <t>225.00</t>
   </si>
   <si>
-    <t>Wednesday, 21 May, 2025 9:35 PM</t>
+    <t>Wednesday, 21 May, 2025 9:37 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-21_00-00.xlsx
+++ b/DaySale_2025-05-21_00-00.xlsx
@@ -71,7 +71,7 @@
     <t>225.00</t>
   </si>
   <si>
-    <t>Wednesday, 21 May, 2025 9:37 PM</t>
+    <t>Wednesday, 21 May, 2025 9:38 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-05-21_00-00.xlsx
+++ b/DaySale_2025-05-21_00-00.xlsx
@@ -71,7 +71,7 @@
     <t>225.00</t>
   </si>
   <si>
-    <t>Wednesday, 21 May, 2025 9:38 PM</t>
+    <t>Wednesday, 21 May, 2025 9:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
